--- a/rainfallInterception/calibrazioneModello.xlsx
+++ b/rainfallInterception/calibrazioneModello.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Extcoef</t>
   </si>
@@ -122,12 +122,39 @@
   <si>
     <t>25.700000 20.900000 20.136508 4.200000 1.972606</t>
   </si>
+  <si>
+    <t>data inizio</t>
+  </si>
+  <si>
+    <t>data fine</t>
+  </si>
+  <si>
+    <t>rmse rainfall</t>
+  </si>
+  <si>
+    <t>rmse Th. Obs</t>
+  </si>
+  <si>
+    <t>Rmse stem obs</t>
+  </si>
+  <si>
+    <t>14/08/20153</t>
+  </si>
+  <si>
+    <t>drenaggio</t>
+  </si>
+  <si>
+    <t>evaporazione</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,13 +168,43 @@
       <name val="Courier"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -159,15 +216,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Valore valido" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -829,24 +894,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="119550720"/>
-        <c:axId val="127343616"/>
+        <c:axId val="58401920"/>
+        <c:axId val="58403456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119550720"/>
+        <c:axId val="58401920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127343616"/>
+        <c:crossAx val="58403456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127343616"/>
+        <c:axId val="58403456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.5"/>
@@ -856,20 +921,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119550720"/>
+        <c:crossAx val="58401920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1530,24 +1594,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="118600064"/>
-        <c:axId val="118602752"/>
+        <c:axId val="58431360"/>
+        <c:axId val="58432896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118600064"/>
+        <c:axId val="58431360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118602752"/>
+        <c:crossAx val="58432896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118602752"/>
+        <c:axId val="58432896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1555,20 +1619,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118600064"/>
+        <c:crossAx val="58431360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7599,24 +7662,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="57404800"/>
-        <c:axId val="57407360"/>
+        <c:axId val="58723712"/>
+        <c:axId val="58737792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57404800"/>
+        <c:axId val="58723712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57407360"/>
+        <c:crossAx val="58737792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57407360"/>
+        <c:axId val="58737792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7624,20 +7687,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57404800"/>
+        <c:crossAx val="58723712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8298,24 +8360,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="57532800"/>
-        <c:axId val="118985472"/>
+        <c:axId val="58881152"/>
+        <c:axId val="58882688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57532800"/>
+        <c:axId val="58881152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118985472"/>
+        <c:crossAx val="58882688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118985472"/>
+        <c:axId val="58882688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8323,20 +8385,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57532800"/>
+        <c:crossAx val="58881152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8997,24 +9058,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="119585024"/>
-        <c:axId val="127351040"/>
+        <c:axId val="58967936"/>
+        <c:axId val="58969472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119585024"/>
+        <c:axId val="58967936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127351040"/>
+        <c:crossAx val="58969472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127351040"/>
+        <c:axId val="58969472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9022,7 +9083,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119585024"/>
+        <c:crossAx val="58967936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9035,7 +9096,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9186,24 +9247,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="53997952"/>
-        <c:axId val="54273152"/>
+        <c:axId val="58788864"/>
+        <c:axId val="58807040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53997952"/>
+        <c:axId val="58788864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54273152"/>
+        <c:crossAx val="58807040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54273152"/>
+        <c:axId val="58807040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9211,7 +9272,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53997952"/>
+        <c:crossAx val="58788864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9224,7 +9285,734 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Foglio6!$I$16:$I$28</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>13.855740618505983</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>22.135507756444635</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.1040930555151425</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.6494044476213956</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.9957715046123266</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.4489284639416278</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.8328814631520318</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5.7</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10.407357364975383</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>10.7</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>24.7</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Foglio6!$I$16:$I$28</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>13.855740618505983</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>22.135507756444635</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.1040930555151425</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.6494044476213956</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.9957715046123266</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.4489284639416278</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.8328814631520318</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5.7</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10.407357364975383</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>10.7</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>24.7</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio6!$B$16:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>42256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42479</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42585</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42696</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42920</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio6!$D$16:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>59.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>104.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio6!$B$16:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>42256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42479</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42585</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42696</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42920</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio6!$E$16:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>54.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio6!$B$16:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>42256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42479</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42585</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42696</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42920</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio6!$C$16:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>85.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>147.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="141861248"/>
+        <c:axId val="141859456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="141861248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dd/mm" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141859456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="141859456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141861248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Foglio6!$J$16:$J$28</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="2">
+                    <c:v>0.9</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.9</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.6</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.8</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Foglio6!$J$16:$J$28</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="2">
+                    <c:v>0.9</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.9</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.6</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.8</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:val val="1"/>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio6!$B$16:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>42256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42479</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42585</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42696</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42920</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio6!$F$16:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio6!$B$16:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>42256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42479</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42585</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42696</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42920</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio6!$G$16:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.96</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.440000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="143074432"/>
+        <c:axId val="143075968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="143074432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dd/mm" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143075968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="143075968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143074432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9422,6 +10210,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -50993,8 +51846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -51710,71 +52563,531 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2">
+        <v>42256</v>
+      </c>
+      <c r="C16">
+        <v>85.4</v>
+      </c>
+      <c r="D16">
+        <v>59.2</v>
+      </c>
+      <c r="E16">
+        <v>54.6</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>8.4</v>
+      </c>
+      <c r="H16" s="5">
+        <v>3.1052603360801641</v>
+      </c>
+      <c r="I16" s="5">
+        <v>13.855740618505983</v>
+      </c>
+      <c r="K16">
+        <f>E16+G16</f>
+        <v>63</v>
+      </c>
+      <c r="L16">
+        <f>C16-K16</f>
+        <v>22.400000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="4">
+        <v>42473</v>
+      </c>
+      <c r="B17" s="2">
+        <v>42479</v>
+      </c>
+      <c r="C17">
+        <v>52.7</v>
+      </c>
+      <c r="D17">
+        <v>43.4</v>
+      </c>
+      <c r="E17">
+        <v>41</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>4.8</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1.449121490170743</v>
+      </c>
+      <c r="I17" s="5">
+        <v>22.135507756444635</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="K17:K27" si="0">E17+G17</f>
+        <v>45.8</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:L27" si="1">C17-K17</f>
+        <v>6.9000000000000057</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="4">
+        <v>42480</v>
+      </c>
+      <c r="B18" s="2">
+        <v>42495</v>
+      </c>
+      <c r="C18">
+        <v>18.7</v>
+      </c>
+      <c r="D18">
+        <v>15.7</v>
+      </c>
+      <c r="E18">
+        <v>11.3</v>
+      </c>
+      <c r="F18">
+        <v>0.8</v>
+      </c>
+      <c r="G18">
+        <v>0.99</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1.449121490170743</v>
+      </c>
+      <c r="I18" s="5">
+        <v>4.1040930555151425</v>
+      </c>
+      <c r="J18">
+        <v>0.9</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>12.290000000000001</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>6.4099999999999984</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="4">
+        <v>42558</v>
+      </c>
+      <c r="B19" s="2">
+        <v>42585</v>
+      </c>
+      <c r="C19">
+        <v>41.4</v>
+      </c>
+      <c r="D19">
+        <v>29.8</v>
+      </c>
+      <c r="E19">
+        <v>24.53</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>3.72</v>
+      </c>
+      <c r="H19" s="5">
+        <v>4.554381826250907</v>
+      </c>
+      <c r="I19" s="5">
+        <v>5.6494044476213956</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>28.25</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>13.149999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="4">
+        <v>42620</v>
+      </c>
+      <c r="B20" s="2">
+        <v>42640</v>
+      </c>
+      <c r="C20">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D20">
+        <v>14.4</v>
+      </c>
+      <c r="E20">
+        <v>11.2</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="G20">
+        <v>1.63</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.62105206721603423</v>
+      </c>
+      <c r="I20" s="5">
+        <v>2.9957715046123266</v>
+      </c>
+      <c r="J20">
+        <v>0.9</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>12.829999999999998</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>5.2700000000000031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="4">
+        <v>42641</v>
+      </c>
+      <c r="B21" s="2">
+        <v>42669</v>
+      </c>
+      <c r="C21">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D21">
+        <v>25.5</v>
+      </c>
+      <c r="E21">
+        <v>23.6</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>2.7</v>
+      </c>
+      <c r="H21" s="5">
+        <v>2.8982429803414878</v>
+      </c>
+      <c r="I21" s="5">
+        <v>4.4489284639416278</v>
+      </c>
+      <c r="J21">
+        <v>3.8</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>26.3</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>6.4999999999999964</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="4">
+        <v>42670</v>
+      </c>
+      <c r="B22" s="3">
+        <v>42696</v>
+      </c>
+      <c r="C22">
+        <v>25.7</v>
+      </c>
+      <c r="D22">
+        <v>20.9</v>
+      </c>
+      <c r="E22">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F22">
+        <v>4.2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1.6561388459094228</v>
+      </c>
+      <c r="I22" s="5">
+        <v>4.8328814631520318</v>
+      </c>
+      <c r="J22">
+        <v>3.6</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>22.1</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>3.5999999999999979</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="4">
+        <v>42696</v>
+      </c>
+      <c r="B24" s="4">
+        <v>42802</v>
+      </c>
+      <c r="C24">
+        <v>43.5</v>
+      </c>
+      <c r="D24">
+        <v>31.9</v>
+      </c>
+      <c r="E24">
+        <v>31.66</v>
+      </c>
+      <c r="F24">
+        <v>4.5</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24" s="5">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>5.7</v>
+      </c>
+      <c r="J24">
+        <v>3.2</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>34.659999999999997</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>8.8400000000000034</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="4">
+        <v>42900</v>
+      </c>
+      <c r="B25" s="4">
+        <v>42920</v>
+      </c>
+      <c r="C25">
+        <v>68.2</v>
+      </c>
+      <c r="D25">
+        <v>48.1</v>
+      </c>
+      <c r="E25">
+        <v>47.9</v>
+      </c>
+      <c r="F25">
+        <v>7.5</v>
+      </c>
+      <c r="G25">
+        <v>7.46</v>
+      </c>
+      <c r="H25" s="5">
+        <v>5.8</v>
+      </c>
+      <c r="I25">
+        <v>10.407357364975383</v>
+      </c>
+      <c r="J25">
+        <v>3.8</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>55.36</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>12.840000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="4">
+        <v>42921</v>
+      </c>
+      <c r="B26" s="4">
+        <v>42947</v>
+      </c>
+      <c r="C26">
+        <v>68.7</v>
+      </c>
+      <c r="D26">
+        <v>45.8</v>
+      </c>
+      <c r="E26">
+        <v>44.9</v>
+      </c>
+      <c r="F26">
+        <v>3.7</v>
+      </c>
+      <c r="G26">
+        <v>6.96</v>
+      </c>
+      <c r="H26" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="I26">
+        <v>10.7</v>
+      </c>
+      <c r="J26">
+        <v>3.5</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>51.86</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>16.840000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="4">
+        <v>42948</v>
+      </c>
+      <c r="B27" s="4">
+        <v>42989</v>
+      </c>
+      <c r="C27">
+        <v>147.4</v>
+      </c>
+      <c r="D27">
+        <v>104.6</v>
+      </c>
+      <c r="E27">
+        <v>105.6</v>
+      </c>
+      <c r="F27" s="7">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="H27" s="5">
+        <v>27.3</v>
+      </c>
+      <c r="I27">
+        <v>24.7</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>122.03999999999999</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>25.360000000000014</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/rainfallInterception/calibrazioneModello.xlsx
+++ b/rainfallInterception/calibrazioneModello.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="18195" windowHeight="4695" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="18195" windowHeight="4695"/>
   </bookViews>
   <sheets>
     <sheet name="calibrazioneStemFlow" sheetId="1" r:id="rId1"/>
     <sheet name="calibrazioneThroughfall" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio4" sheetId="4" r:id="rId3"/>
     <sheet name="Foglio5" sheetId="5" r:id="rId4"/>
-    <sheet name="Foglio6" sheetId="6" r:id="rId5"/>
+    <sheet name="Grafico_throughfall" sheetId="7" r:id="rId5"/>
+    <sheet name="Grafico_stemflow" sheetId="8" r:id="rId6"/>
+    <sheet name="Foglio6" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="calibration" localSheetId="1">calibrazioneThroughfall!$A$1:$E$2001</definedName>
@@ -894,24 +896,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58401920"/>
-        <c:axId val="58403456"/>
+        <c:axId val="89175936"/>
+        <c:axId val="89177472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58401920"/>
+        <c:axId val="89175936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58403456"/>
+        <c:crossAx val="89177472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58403456"/>
+        <c:axId val="89177472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.5"/>
@@ -921,19 +923,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58401920"/>
+        <c:crossAx val="89175936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1594,24 +1597,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58431360"/>
-        <c:axId val="58432896"/>
+        <c:axId val="89193088"/>
+        <c:axId val="89600384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58431360"/>
+        <c:axId val="89193088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58432896"/>
+        <c:crossAx val="89600384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58432896"/>
+        <c:axId val="89600384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1619,19 +1622,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58431360"/>
+        <c:crossAx val="89193088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7662,24 +7666,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58723712"/>
-        <c:axId val="58737792"/>
+        <c:axId val="89928064"/>
+        <c:axId val="89929600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58723712"/>
+        <c:axId val="89928064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58737792"/>
+        <c:crossAx val="89929600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58737792"/>
+        <c:axId val="89929600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7687,7 +7691,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58723712"/>
+        <c:crossAx val="89928064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7699,7 +7703,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8360,24 +8364,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58881152"/>
-        <c:axId val="58882688"/>
+        <c:axId val="90077056"/>
+        <c:axId val="90078592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58881152"/>
+        <c:axId val="90077056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58882688"/>
+        <c:crossAx val="90078592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58882688"/>
+        <c:axId val="90078592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8385,7 +8389,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58881152"/>
+        <c:crossAx val="90077056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8397,7 +8401,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9058,24 +9062,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58967936"/>
-        <c:axId val="58969472"/>
+        <c:axId val="90110592"/>
+        <c:axId val="89985408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58967936"/>
+        <c:axId val="90110592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58969472"/>
+        <c:crossAx val="89985408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58969472"/>
+        <c:axId val="89985408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9083,20 +9087,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58967936"/>
+        <c:crossAx val="90110592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9247,24 +9250,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58788864"/>
-        <c:axId val="58807040"/>
+        <c:axId val="90198016"/>
+        <c:axId val="90199552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58788864"/>
+        <c:axId val="90198016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58807040"/>
+        <c:crossAx val="90199552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58807040"/>
+        <c:axId val="90199552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9272,7 +9275,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58788864"/>
+        <c:crossAx val="90198016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9285,7 +9288,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9295,6 +9298,25 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="it-IT"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Throughfall</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -9302,6 +9324,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>observed</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
@@ -9484,6 +9509,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>simulated</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
@@ -9577,6 +9605,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>rainfall</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
@@ -9667,31 +9698,51 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="141861248"/>
-        <c:axId val="141859456"/>
+        <c:axId val="56846976"/>
+        <c:axId val="56856960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141861248"/>
+        <c:axId val="56846976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="43000"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="dd/mm" sourceLinked="0"/>
+        <c:numFmt formatCode="dd/mm/yy" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141859456"/>
+        <c:crossAx val="56856960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="200"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141859456"/>
+        <c:axId val="56856960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>water amount (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141861248"/>
+        <c:crossAx val="56846976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9702,11 +9753,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -9714,18 +9760,49 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="it-IT"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Stemflow</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>observed</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -9883,13 +9960,28 @@
           </c:yVal>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="4"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>simulated</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Foglio6!$B$16:$B$27</c:f>
@@ -9975,31 +10067,52 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="143074432"/>
-        <c:axId val="143075968"/>
+        <c:axId val="92564864"/>
+        <c:axId val="132429312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="143074432"/>
+        <c:axId val="92564864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="43000"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="dd/mm" sourceLinked="0"/>
+        <c:numFmt formatCode="dd/mm/yy" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143075968"/>
+        <c:crossAx val="132429312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="200"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="143075968"/>
+        <c:axId val="132429312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>water amount (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143074432"/>
+        <c:crossAx val="92564864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10010,12 +10123,29 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10220,23 +10350,15 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9301370" cy="6079435"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -10249,24 +10371,21 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9301370" cy="6079435"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafico 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Grafico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -10274,12 +10393,12 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10586,7 +10705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E211"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
@@ -52565,8 +52684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53088,6 +53207,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>